--- a/exercises/doc/exercises.xlsx
+++ b/exercises/doc/exercises.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerolfziegenhain/src/hangboard/exercises/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB8AF9-9E08-7F45-85EF-713D9C329C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90747F51-5182-F146-80FA-3BC3F271D521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="0" windowWidth="27800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -347,7 +347,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H80"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
